--- a/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:27:19+00:00</t>
+    <t>2024-02-09T16:53:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Définition des t" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from ResearchStudyObj" r:id="rId4" sheetId="2"/>
+    <sheet name="Exclude from ResearchStudyObj" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:53:12+00:00</t>
+    <t>2024-02-10T11:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,9 +82,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Type de conséquence Value Set (inspiré du Value Set de R5 : https://hl7.org/fhir/R5/valueset-research-study-objective-type.html)</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -108,7 +106,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/CodeSystem/eclaire-study-outcome-type-code-system</t>
+    <t>http://terminology.hl7.org/CodeSystem/research-study-objective-type</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>exploratory</t>
   </si>
 </sst>
 </file>
@@ -343,27 +347,27 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -385,28 +389,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>30</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>29</v>
+      </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T11:32:40+00:00</t>
+    <t>2024-02-12T07:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:45:47+00:00</t>
+    <t>2024-02-12T07:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:58:20+00:00</t>
+    <t>2024-02-12T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/ValueSet-eclaire-study-outcome-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:03:44+00:00</t>
+    <t>2024-02-12T09:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
